--- a/data/trans_bre/IP15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP15-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>23,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>17,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>15,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>126,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>167,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>109,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-14,38%</t>
+          <t>12,76%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 7,78</t>
+          <t>2,37; 45,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 7,98</t>
+          <t>-2,61; 37,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,88</t>
+          <t>-6,1; 38,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 3,28</t>
+          <t>-23,58; 33,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 47,32</t>
+          <t>-0,23; 512,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 53,61</t>
+          <t>-36,36; 1220,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 50,81</t>
+          <t>-43,64; 708,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 15,57</t>
+          <t>-49,26; 208,53</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,32%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,96%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>-14,38%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -0,06</t>
+          <t>-4,76; 7,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 4,25</t>
+          <t>-3,75; 7,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 7,04</t>
+          <t>-3,83; 7,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 6,33</t>
+          <t>-10,86; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,6; -1,38</t>
+          <t>-20,67; 47,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 21,8</t>
+          <t>-17,54; 53,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 61,75</t>
+          <t>-17,7; 50,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 43,83</t>
+          <t>-40,03; 15,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,85</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,45</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>126,75%</t>
+          <t>-22,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>167,47%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>109,6%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 45,05</t>
+          <t>-12,69; 2,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 37,7</t>
+          <t>-8,79; 6,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 38,6</t>
+          <t>-5,12; 7,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 33,02</t>
+          <t>-5,6; 17,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 512,37</t>
+          <t>-47,31; 11,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 1220,4</t>
+          <t>-33,61; 35,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,64; 708,2</t>
+          <t>-27,08; 59,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 208,53</t>
+          <t>-17,08; 65,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,2%</t>
+          <t>-34,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-12,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>-3,29%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 2,24</t>
+          <t>-12,32; -0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 6,68</t>
+          <t>-9,44; 4,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 7,85</t>
+          <t>-4,2; 7,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 17,8</t>
+          <t>-7,64; 6,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 11,14</t>
+          <t>-56,6; -1,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 35,73</t>
+          <t>-35,96; 21,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,08; 59,93</t>
+          <t>-25,48; 61,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 65,36</t>
+          <t>-34,82; 43,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP15-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 45,05</t>
+          <t>0,44; 44,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 37,7</t>
+          <t>-3,23; 38,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 38,6</t>
+          <t>-8,24; 37,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 512,37</t>
+          <t>-5,66; 480,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 1220,4</t>
+          <t>-38,44; 1163,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-43,64; 708,2</t>
+          <t>-43,13; 729,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 9,48</t>
+          <t>-7,27; 9,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 6,91</t>
+          <t>-12,0; 6,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 7,57</t>
+          <t>-8,41; 7,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 7,94</t>
+          <t>-8,69; 9,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 63,78</t>
+          <t>-32,07; 60,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 35,73</t>
+          <t>-42,21; 37,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 60,78</t>
+          <t>-41,23; 61,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 56,38</t>
+          <t>-37,93; 65,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 7,78</t>
+          <t>-4,09; 8,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 7,98</t>
+          <t>-3,92; 8,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,88</t>
+          <t>-3,89; 8,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 3,28</t>
+          <t>-10,46; 3,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 47,32</t>
+          <t>-18,98; 50,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 53,61</t>
+          <t>-18,9; 53,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 50,81</t>
+          <t>-18,3; 52,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 15,57</t>
+          <t>-38,67; 16,83</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 2,24</t>
+          <t>-12,21; 2,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 6,68</t>
+          <t>-7,73; 6,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 7,85</t>
+          <t>-5,32; 8,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 17,8</t>
+          <t>-6,11; 16,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 11,14</t>
+          <t>-45,04; 11,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 35,73</t>
+          <t>-29,68; 38,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,08; 59,93</t>
+          <t>-26,75; 64,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 65,36</t>
+          <t>-18,33; 63,47</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -0,06</t>
+          <t>-11,78; -0,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 4,25</t>
+          <t>-10,63; 3,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 7,04</t>
+          <t>-4,66; 7,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 6,33</t>
+          <t>-7,14; 6,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,6; -1,38</t>
+          <t>-55,88; -2,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 21,8</t>
+          <t>-39,24; 21,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 61,75</t>
+          <t>-27,95; 60,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 43,83</t>
+          <t>-34,34; 42,58</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 1,55</t>
+          <t>-4,97; 1,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,41</t>
+          <t>-3,83; 3,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,82</t>
+          <t>-1,79; 4,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 4,39</t>
+          <t>-3,85; 5,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 8,31</t>
+          <t>-22,81; 10,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 17,62</t>
+          <t>-16,84; 16,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 32,24</t>
+          <t>-9,53; 31,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 19,91</t>
+          <t>-14,82; 24,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP15-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 44,75</t>
+          <t>2,44; 46,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 38,74</t>
+          <t>-3,42; 38,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 37,15</t>
+          <t>-8,54; 37,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 33,02</t>
+          <t>-26,62; 30,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 480,15</t>
+          <t>4,59; 570,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 1163,12</t>
+          <t>-46,31; 1192,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 729,0</t>
+          <t>-47,5; 707,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 208,53</t>
+          <t>-52,72; 210,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 9,13</t>
+          <t>-6,84; 9,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 6,84</t>
+          <t>-11,72; 6,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 7,48</t>
+          <t>-9,49; 7,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 9,28</t>
+          <t>-10,07; 8,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 60,49</t>
+          <t>-30,98; 68,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 37,01</t>
+          <t>-40,7; 34,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 61,29</t>
+          <t>-45,59; 56,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 65,91</t>
+          <t>-41,76; 57,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 8,4</t>
+          <t>-4,73; 8,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 8,2</t>
+          <t>-4,27; 8,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 8,2</t>
+          <t>-3,46; 8,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 3,67</t>
+          <t>-10,28; 3,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 50,79</t>
+          <t>-21,65; 50,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 53,52</t>
+          <t>-19,99; 55,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 52,57</t>
+          <t>-16,93; 55,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 16,83</t>
+          <t>-37,4; 16,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 2,2</t>
+          <t>-12,6; 2,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 6,55</t>
+          <t>-7,74; 6,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 8,33</t>
+          <t>-5,52; 7,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 16,2</t>
+          <t>-5,65; 17,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 11,51</t>
+          <t>-45,67; 15,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 38,37</t>
+          <t>-31,51; 33,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 64,4</t>
+          <t>-27,82; 54,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 63,47</t>
+          <t>-16,84; 63,57</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -0,58</t>
+          <t>-12,47; -0,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 3,95</t>
+          <t>-10,08; 4,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 7,07</t>
+          <t>-5,08; 7,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 6,4</t>
+          <t>-7,2; 6,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-55,88; -2,95</t>
+          <t>-57,65; 0,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,24; 21,05</t>
+          <t>-38,05; 21,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 60,75</t>
+          <t>-28,44; 62,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 42,58</t>
+          <t>-33,01; 45,93</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,89</t>
+          <t>-5,05; 1,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 3,24</t>
+          <t>-3,76; 3,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,82</t>
+          <t>-1,54; 4,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,04</t>
+          <t>-4,3; 4,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 10,41</t>
+          <t>-23,17; 10,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 16,6</t>
+          <t>-16,78; 16,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 31,96</t>
+          <t>-8,35; 30,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 24,11</t>
+          <t>-16,69; 21,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP15-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,85</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,45</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>126,75%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>167,47%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>109,6%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>11,85%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 46,7</t>
+          <t>-3,12; 12,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 38,97</t>
+          <t>-7,64; 8,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 37,4</t>
+          <t>-5,01; 9,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 30,52</t>
+          <t>-5,77; 12,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 570,96</t>
+          <t>-14,29; 78,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 1192,77</t>
+          <t>-30,72; 48,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-47,5; 707,58</t>
+          <t>-26,84; 77,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,72; 210,05</t>
+          <t>-24,52; 86,18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,34%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,68%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>-7,44%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 9,81</t>
+          <t>-4,76; 7,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 6,7</t>
+          <t>-3,75; 7,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 7,14</t>
+          <t>-3,83; 7,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 8,62</t>
+          <t>-9,9; 7,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 68,46</t>
+          <t>-20,67; 47,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 34,87</t>
+          <t>-17,54; 53,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,59; 56,76</t>
+          <t>-17,7; 50,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,76; 57,51</t>
+          <t>-34,73; 32,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>-22,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,38%</t>
+          <t>34,81%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 8,19</t>
+          <t>-12,69; 2,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 8,24</t>
+          <t>-8,79; 6,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 8,3</t>
+          <t>-5,12; 7,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 3,56</t>
+          <t>-2,09; 36,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 50,5</t>
+          <t>-47,31; 11,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 55,08</t>
+          <t>-33,61; 35,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 55,25</t>
+          <t>-27,08; 59,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 16,64</t>
+          <t>-7,06; 147,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,2%</t>
+          <t>-34,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-12,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>-2,46%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 2,74</t>
+          <t>-12,32; -0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 6,12</t>
+          <t>-9,44; 4,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 7,39</t>
+          <t>-4,2; 7,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 17,14</t>
+          <t>-7,23; 6,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 15,44</t>
+          <t>-56,6; -1,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 33,35</t>
+          <t>-35,96; 21,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 54,84</t>
+          <t>-25,48; 61,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 63,57</t>
+          <t>-34,08; 47,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-34,32%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,96%</t>
+          <t>-1,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>12,19%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,47; -0,33</t>
+          <t>-5,16; 1,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 4,05</t>
+          <t>-3,67; 3,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 7,17</t>
+          <t>-1,48; 4,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 6,84</t>
+          <t>-2,09; 13,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 0,81</t>
+          <t>-23,38; 8,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 21,46</t>
+          <t>-16,33; 17,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 62,57</t>
+          <t>-8,09; 32,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 45,93</t>
+          <t>-8,77; 55,73</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-7,6%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-1,54%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,34%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 1,92</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 3,19</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 4,64</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 4,58</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-23,17; 10,85</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-16,78; 16,35</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; 30,96</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 21,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
